--- a/onsale/base/onsale.xlsx
+++ b/onsale/base/onsale.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9960" yWindow="440" windowWidth="25600" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="488">
   <si>
     <t>东城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,690 +576,1172 @@
     <t>https://bj.lianjia.com/ershoufang/shoudoujichang1/</t>
   </si>
   <si>
+    <t>https://bj.lianjia.com/ershoufang/tongzhoubeiyuan/</t>
+  </si>
+  <si>
+    <t>团结湖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tuanjiehu/</t>
+  </si>
+  <si>
+    <t>太阳宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/taiyanggong/</t>
+  </si>
+  <si>
+    <t>甜水园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tianshuiyuan/</t>
+  </si>
+  <si>
+    <t>望京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wangjing/</t>
+  </si>
+  <si>
+    <t>西坝河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xibahe/</t>
+  </si>
+  <si>
+    <t>亚运村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yayuncun/</t>
+  </si>
+  <si>
+    <t>亚运村小营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yayuncunxiaoying/</t>
+  </si>
+  <si>
+    <t>燕莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yansha1/</t>
+  </si>
+  <si>
+    <t>中央别墅区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zhongyangbieshuqu1/</t>
+  </si>
+  <si>
+    <t>朝阳其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zhaoyangqita/</t>
+  </si>
+  <si>
+    <t>东坝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/dongba/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shuangjing/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海淀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安宁庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/anningzhuang1/</t>
+  </si>
+  <si>
+    <t>白石桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/baishiqiao1/</t>
+  </si>
+  <si>
+    <t>北太平庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/beitaipingzhuang/</t>
+  </si>
+  <si>
+    <t>厂洼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/changwa/</t>
+  </si>
+  <si>
+    <t>定慧寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/dinghuisi/</t>
+  </si>
+  <si>
+    <t>二里庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/erlizhuang/</t>
+  </si>
+  <si>
+    <t>公主坟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/gongzhufen/</t>
+  </si>
+  <si>
+    <t>甘家口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/ganjiakou/</t>
+  </si>
+  <si>
+    <t>海淀其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/haidianqita1/</t>
+  </si>
+  <si>
+    <t>海淀北部新区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/haidianbeibuxinqu1/</t>
+  </si>
+  <si>
+    <t>军博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/junbo1/</t>
+  </si>
+  <si>
+    <t>牡丹园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/mudanyuan/</t>
+  </si>
+  <si>
+    <t>马连洼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/malianwa/</t>
+  </si>
+  <si>
+    <t>清河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/qinghe11/</t>
+  </si>
+  <si>
+    <t>苏州桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/suzhouqiao/</t>
+  </si>
+  <si>
+    <t>上地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shangdi1/</t>
+  </si>
+  <si>
+    <t>世纪城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shijicheng/</t>
+  </si>
+  <si>
+    <t>四季青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/sijiqing/</t>
+  </si>
+  <si>
+    <t>双榆树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shuangyushu/</t>
+  </si>
+  <si>
+    <t>田村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tiancun1/</t>
+  </si>
+  <si>
+    <t>五道口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wudaokou/</t>
+  </si>
+  <si>
+    <t>魏公村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/weigongcun/</t>
+  </si>
+  <si>
+    <t>五棵松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wukesong1/</t>
+  </si>
+  <si>
+    <t>万柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wanliu/</t>
+  </si>
+  <si>
+    <t>万寿路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wanshoulu1/</t>
+  </si>
+  <si>
+    <t>西山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xishan21/</t>
+  </si>
+  <si>
+    <t>西北旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xibeiwang/</t>
+  </si>
+  <si>
+    <t>学院路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xueyuanlu1/</t>
+  </si>
+  <si>
+    <t>小西天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xiaoxitian1/</t>
+  </si>
+  <si>
+    <t>西直门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xizhimen1/</t>
+  </si>
+  <si>
+    <t>新街口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xinjiekou2/</t>
+  </si>
+  <si>
+    <t>西二旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xierqi1/</t>
+  </si>
+  <si>
+    <t>杨庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yangzhuang1/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yuquanlu11/</t>
+  </si>
+  <si>
+    <t>玉泉路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆明园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yuanmingyuan/</t>
+  </si>
+  <si>
+    <t>颐和园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yiheyuan/</t>
+  </si>
+  <si>
+    <t>知春路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zhichunlu/</t>
+  </si>
+  <si>
+    <t>皂君庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zaojunmiao/</t>
+  </si>
+  <si>
+    <t>中关村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zhongguancun/</t>
+  </si>
+  <si>
+    <t>紫竹桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zizhuqiao/</t>
+  </si>
+  <si>
+    <t>丰台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京南站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/beijingnanzhan1/</t>
+  </si>
+  <si>
+    <t>北大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/beidadi/</t>
+  </si>
+  <si>
+    <t>成寿寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/chengshousi1/</t>
+  </si>
+  <si>
+    <t>草桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/caoqiao/</t>
+  </si>
+  <si>
+    <t>菜户营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/caihuying/</t>
+  </si>
+  <si>
+    <t>大红门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/dahongmen/</t>
+  </si>
+  <si>
+    <t>丰台其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/fengtaiqita1/</t>
+  </si>
+  <si>
+    <t>方庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/fangzhuang1/</t>
+  </si>
+  <si>
+    <t>广安门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/guanganmen/</t>
+  </si>
+  <si>
+    <t>和义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/heyi/</t>
+  </si>
+  <si>
+    <t>花乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huaxiang/</t>
+  </si>
+  <si>
+    <t>旧宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/jiugong1/</t>
+  </si>
+  <si>
+    <t>角门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/jiaomen/</t>
+  </si>
+  <si>
+    <t>科技园区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/kejiyuanqu/</t>
+  </si>
+  <si>
+    <t>看丹桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/kandanqiao/</t>
+  </si>
+  <si>
+    <t>六里桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/liuliqiao1/</t>
+  </si>
+  <si>
+    <t>刘家窑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/liujiayao/</t>
+  </si>
+  <si>
+    <t>丽泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/lize/</t>
+  </si>
+  <si>
+    <t>卢沟桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/lugouqiao1/</t>
+  </si>
+  <si>
+    <t>马连道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/maliandao1/</t>
+  </si>
+  <si>
+    <t>马家堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/majiabao/</t>
+  </si>
+  <si>
+    <t>木樨园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/muxiyuan1/</t>
+  </si>
+  <si>
+    <t>蒲黄榆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/puhuangyu/</t>
+  </si>
+  <si>
+    <t>七里庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/qilizhuang/</t>
+  </si>
+  <si>
+    <t>青塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/qingta1/</t>
+  </si>
+  <si>
+    <t>宋家庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/songjiazhuang/</t>
+  </si>
+  <si>
+    <t>太平桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/taipingqiao1/</t>
+  </si>
+  <si>
+    <t>五里店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wulidian/</t>
+  </si>
+  <si>
+    <t>西红门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xihongmen/</t>
+  </si>
+  <si>
+    <t>西罗园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xiluoyuan/</t>
+  </si>
+  <si>
+    <t>新宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xingong/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yangqiao1/</t>
+  </si>
+  <si>
+    <t>洋桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉泉营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yuquanying/</t>
+  </si>
+  <si>
+    <t>岳各庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yuegezhuang/</t>
+  </si>
+  <si>
+    <t>右安门外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/youanmenwai/</t>
+  </si>
+  <si>
+    <t>赵公口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/zhaogongkou/</t>
+  </si>
+  <si>
+    <t>石景山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/bajiao1/</t>
+  </si>
+  <si>
+    <t>古城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/gucheng/</t>
+  </si>
+  <si>
+    <t>鲁谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/lugu1/</t>
+  </si>
+  <si>
+    <t>老山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/laoshan1/</t>
+  </si>
+  <si>
+    <t>苹果园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/pingguoyuan1/</t>
+  </si>
+  <si>
+    <t>石景山其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shijingshanqita1/</t>
+  </si>
+  <si>
+    <t>district</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/beiguan/</t>
+  </si>
+  <si>
+    <t>果园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/guoyuan1/</t>
+  </si>
+  <si>
+    <t>九棵树（家乐福）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/jiukeshu12/</t>
+  </si>
+  <si>
+    <t>潞苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/luyuan/</t>
+  </si>
+  <si>
+    <t>临河里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/linheli/</t>
+  </si>
+  <si>
+    <t>梨园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/liyuan/</t>
+  </si>
+  <si>
+    <t>乔庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/qiaozhuang/</t>
+  </si>
+  <si>
+    <t>通州其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tongzhouqita11/</t>
+  </si>
+  <si>
+    <t>武夷花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/wuyihuayuan/</t>
+  </si>
+  <si>
+    <t>新华大街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xinhuadajie/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yuqiao/</t>
+  </si>
+  <si>
+    <t>昌平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克公园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百善镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北七家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/aolinpikegongyuan11/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/baishanzhen/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/beiqijia/</t>
+  </si>
+  <si>
+    <t>昌平其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/changpingqita1/</t>
+  </si>
+  <si>
+    <t>东关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/dongguan/</t>
+  </si>
+  <si>
+    <t>鼓楼大街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/guloudajie/</t>
+  </si>
+  <si>
+    <t>回龙观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huilongguan2/</t>
+  </si>
+  <si>
+    <t>霍营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huoying/</t>
+  </si>
+  <si>
+    <t>立水桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/lishuiqiao1/</t>
+  </si>
+  <si>
+    <t>南邵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/nanshao/</t>
+  </si>
+  <si>
+    <t>南口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/nankou/</t>
+  </si>
+  <si>
+    <t>沙河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shahe2/</t>
+  </si>
+  <si>
+    <t>天通苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tiantongyuan1/</t>
+  </si>
+  <si>
+    <t>西关环岛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xiguanhuandao/</t>
+  </si>
+  <si>
+    <t>西三旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xisanqi1/</t>
+  </si>
+  <si>
+    <t>小汤山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/xiaotangshan1/</t>
+  </si>
+  <si>
+    <t>大兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/daxingqita11/</t>
+  </si>
+  <si>
+    <t>观音寺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/guanyinsi/</t>
+  </si>
+  <si>
+    <t>黄村火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huangcunhuochezhan/</t>
+  </si>
+  <si>
+    <t>黄村北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huangcunbei/</t>
+  </si>
+  <si>
+    <t>黄村中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huangcunzhong/</t>
+  </si>
+  <si>
+    <t>天宫院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tiangongyuan/</t>
+  </si>
+  <si>
+    <t>枣园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马驹桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亦庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yizhuang1/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/majuqiao1/</t>
+  </si>
+  <si>
+    <t>亦庄其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yizhuangkaifaquqita1/</t>
+  </si>
+  <si>
+    <t>顺义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后沙峪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/houshayu1/</t>
+  </si>
+  <si>
+    <t>李桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/liqiao1/</t>
+  </si>
+  <si>
+    <t>马坡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/mapo/</t>
+  </si>
+  <si>
+    <t>顺义城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shunyicheng/</t>
+  </si>
+  <si>
+    <t>顺义其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shunyiqita1/</t>
+  </si>
+  <si>
+    <t>天竺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/tianzhu1/</t>
+  </si>
+  <si>
+    <t>房山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/changyang1/</t>
+  </si>
+  <si>
+    <t>城关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/chengguan/</t>
+  </si>
+  <si>
+    <t>窦店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/doudian/</t>
+  </si>
+  <si>
+    <t>房山其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/fangshanqita/</t>
+  </si>
+  <si>
+    <t>韩村河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/hancunhe1/</t>
+  </si>
+  <si>
+    <t>良乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/liangxiang/</t>
+  </si>
+  <si>
+    <t>琉璃河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/liulihe/</t>
+  </si>
+  <si>
+    <t>燕山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yanshan/</t>
+  </si>
+  <si>
+    <t>阎村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yancun/</t>
+  </si>
+  <si>
+    <t>门头沟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/binhexiqu1/</t>
+  </si>
+  <si>
     <t>通州北苑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://bj.lianjia.com/ershoufang/tongzhoubeiyuan/</t>
-  </si>
-  <si>
-    <t>团结湖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/tuanjiehu/</t>
-  </si>
-  <si>
-    <t>太阳宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/taiyanggong/</t>
-  </si>
-  <si>
-    <t>甜水园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/tianshuiyuan/</t>
-  </si>
-  <si>
-    <t>望京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/wangjing/</t>
-  </si>
-  <si>
-    <t>西坝河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xibahe/</t>
-  </si>
-  <si>
-    <t>亚运村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yayuncun/</t>
-  </si>
-  <si>
-    <t>亚运村小营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yayuncunxiaoying/</t>
-  </si>
-  <si>
-    <t>燕莎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yansha1/</t>
-  </si>
-  <si>
-    <t>中央别墅区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zhongyangbieshuqu1/</t>
-  </si>
-  <si>
-    <t>朝阳其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zhaoyangqita/</t>
-  </si>
-  <si>
-    <t>东坝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/dongba/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/shuangjing/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海淀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安宁庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/anningzhuang1/</t>
-  </si>
-  <si>
-    <t>白石桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/baishiqiao1/</t>
-  </si>
-  <si>
-    <t>北太平庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/beitaipingzhuang/</t>
-  </si>
-  <si>
-    <t>厂洼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/changwa/</t>
-  </si>
-  <si>
-    <t>定慧寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/dinghuisi/</t>
-  </si>
-  <si>
-    <t>二里庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/erlizhuang/</t>
-  </si>
-  <si>
-    <t>公主坟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/gongzhufen/</t>
-  </si>
-  <si>
-    <t>甘家口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/ganjiakou/</t>
-  </si>
-  <si>
-    <t>海淀其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/haidianqita1/</t>
-  </si>
-  <si>
-    <t>海淀北部新区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/haidianbeibuxinqu1/</t>
-  </si>
-  <si>
-    <t>军博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/junbo1/</t>
-  </si>
-  <si>
-    <t>牡丹园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/mudanyuan/</t>
-  </si>
-  <si>
-    <t>马连洼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/malianwa/</t>
-  </si>
-  <si>
-    <t>清河</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/qinghe11/</t>
-  </si>
-  <si>
-    <t>苏州桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/suzhouqiao/</t>
-  </si>
-  <si>
-    <t>上地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/shangdi1/</t>
-  </si>
-  <si>
-    <t>世纪城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/shijicheng/</t>
-  </si>
-  <si>
-    <t>四季青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/sijiqing/</t>
-  </si>
-  <si>
-    <t>双榆树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/shuangyushu/</t>
-  </si>
-  <si>
-    <t>田村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/tiancun1/</t>
-  </si>
-  <si>
-    <t>五道口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/wudaokou/</t>
-  </si>
-  <si>
-    <t>魏公村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/weigongcun/</t>
-  </si>
-  <si>
-    <t>五棵松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/wukesong1/</t>
-  </si>
-  <si>
-    <t>万柳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/wanliu/</t>
-  </si>
-  <si>
-    <t>万寿路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/wanshoulu1/</t>
-  </si>
-  <si>
-    <t>西山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xishan21/</t>
-  </si>
-  <si>
-    <t>西北旺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xibeiwang/</t>
-  </si>
-  <si>
-    <t>学院路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xueyuanlu1/</t>
-  </si>
-  <si>
-    <t>小西天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xiaoxitian1/</t>
-  </si>
-  <si>
-    <t>西直门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xizhimen1/</t>
-  </si>
-  <si>
-    <t>新街口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xinjiekou2/</t>
-  </si>
-  <si>
-    <t>西二旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xierqi1/</t>
-  </si>
-  <si>
-    <t>杨庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yangzhuang1/</t>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yuquanlu11/</t>
-  </si>
-  <si>
-    <t>玉泉路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆明园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yuanmingyuan/</t>
-  </si>
-  <si>
-    <t>颐和园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yiheyuan/</t>
-  </si>
-  <si>
-    <t>知春路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zhichunlu/</t>
-  </si>
-  <si>
-    <t>皂君庙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zaojunmiao/</t>
-  </si>
-  <si>
-    <t>中关村</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zhongguancun/</t>
-  </si>
-  <si>
-    <t>紫竹桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zizhuqiao/</t>
-  </si>
-  <si>
-    <t>丰台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京南站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/beijingnanzhan1/</t>
-  </si>
-  <si>
-    <t>北大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/beidadi/</t>
-  </si>
-  <si>
-    <t>成寿寺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/chengshousi1/</t>
-  </si>
-  <si>
-    <t>草桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/caoqiao/</t>
-  </si>
-  <si>
-    <t>菜户营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/caihuying/</t>
-  </si>
-  <si>
-    <t>大红门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/dahongmen/</t>
-  </si>
-  <si>
-    <t>丰台其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/fengtaiqita1/</t>
-  </si>
-  <si>
-    <t>方庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/fangzhuang1/</t>
-  </si>
-  <si>
-    <t>广安门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/guanganmen/</t>
-  </si>
-  <si>
-    <t>和义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/heyi/</t>
-  </si>
-  <si>
-    <t>花乡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/huaxiang/</t>
-  </si>
-  <si>
-    <t>旧宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/jiugong1/</t>
-  </si>
-  <si>
-    <t>角门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/jiaomen/</t>
-  </si>
-  <si>
-    <t>科技园区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/kejiyuanqu/</t>
-  </si>
-  <si>
-    <t>看丹桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/kandanqiao/</t>
-  </si>
-  <si>
-    <t>六里桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/liuliqiao1/</t>
-  </si>
-  <si>
-    <t>刘家窑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/liujiayao/</t>
-  </si>
-  <si>
-    <t>丽泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/lize/</t>
-  </si>
-  <si>
-    <t>卢沟桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/lugouqiao1/</t>
-  </si>
-  <si>
-    <t>马连道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/maliandao1/</t>
-  </si>
-  <si>
-    <t>马家堡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/majiabao/</t>
-  </si>
-  <si>
-    <t>木樨园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/muxiyuan1/</t>
-  </si>
-  <si>
-    <t>蒲黄榆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/puhuangyu/</t>
-  </si>
-  <si>
-    <t>七里庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/qilizhuang/</t>
-  </si>
-  <si>
-    <t>青塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/qingta1/</t>
-  </si>
-  <si>
-    <t>宋家庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/songjiazhuang/</t>
-  </si>
-  <si>
-    <t>太平桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/taipingqiao1/</t>
-  </si>
-  <si>
-    <t>五里店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/wulidian/</t>
-  </si>
-  <si>
-    <t>西红门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xihongmen/</t>
-  </si>
-  <si>
-    <t>西罗园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xiluoyuan/</t>
-  </si>
-  <si>
-    <t>新宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/xingong/</t>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yangqiao1/</t>
-  </si>
-  <si>
-    <t>洋桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉泉营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yuquanying/</t>
-  </si>
-  <si>
-    <t>岳各庄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/yuegezhuang/</t>
-  </si>
-  <si>
-    <t>右安门外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/youanmenwai/</t>
-  </si>
-  <si>
-    <t>赵公口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/zhaogongkou/</t>
-  </si>
-  <si>
-    <t>石景山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/bajiao1/</t>
-  </si>
-  <si>
-    <t>古城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/gucheng/</t>
-  </si>
-  <si>
-    <t>鲁谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/lugu1/</t>
-  </si>
-  <si>
-    <t>老山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/laoshan1/</t>
-  </si>
-  <si>
-    <t>苹果园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/pingguoyuan1/</t>
-  </si>
-  <si>
-    <t>石景山其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://bj.lianjia.com/ershoufang/shijingshanqita1/</t>
-  </si>
-  <si>
-    <t>district</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>region</t>
+    <t>滨河西区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/chengzi/</t>
+  </si>
+  <si>
+    <t>大峪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/dayu/</t>
+  </si>
+  <si>
+    <t>冯村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/fengcun/</t>
+  </si>
+  <si>
+    <t>门头沟其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/mentougouqita1/</t>
+  </si>
+  <si>
+    <t>石门营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/shimenying/</t>
+  </si>
+  <si>
+    <t>平谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平谷其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/pingguqita1/</t>
+  </si>
+  <si>
+    <t>怀柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huairouchengqu1/</t>
+  </si>
+  <si>
+    <t>怀柔其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/huairouqita1/</t>
+  </si>
+  <si>
+    <t>密云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密云其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延庆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延庆其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/yanqing/</t>
+  </si>
+  <si>
+    <t>https://bj.lianjia.com/ershoufang/miyunqita11/</t>
+  </si>
+  <si>
+    <t>怀柔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1637,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1651,10 +2133,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
         <v>350</v>
-      </c>
-      <c r="B1" t="s">
-        <v>351</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2149,10 +2631,10 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" t="s">
         <v>179</v>
-      </c>
-      <c r="C46" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2435,10 +2917,10 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
         <v>181</v>
-      </c>
-      <c r="C72" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2534,10 +3016,10 @@
         <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2545,10 +3027,10 @@
         <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2556,10 +3038,10 @@
         <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2567,10 +3049,10 @@
         <v>77</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2578,10 +3060,10 @@
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2589,10 +3071,10 @@
         <v>77</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2600,10 +3082,10 @@
         <v>77</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2611,10 +3093,10 @@
         <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2622,10 +3104,10 @@
         <v>77</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2633,381 +3115,381 @@
         <v>77</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
         <v>249</v>
@@ -3015,417 +3497,417 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
         <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B141" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B142" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B148" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B150" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C150" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B151" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C151" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B152" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B153" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C156" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B158" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C158" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C160" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C161" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C162" t="s">
         <v>326</v>
@@ -3433,123 +3915,816 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B163" t="s">
         <v>328</v>
       </c>
       <c r="C163" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C164" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C165" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C166" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C167" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C169" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C170" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B172" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C172" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C173" t="s">
-        <v>349</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>351</v>
+      </c>
+      <c r="B174" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+      <c r="B175" t="s">
+        <v>356</v>
+      </c>
+      <c r="C175" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>351</v>
+      </c>
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" t="s">
+        <v>462</v>
+      </c>
+      <c r="C177" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>351</v>
+      </c>
+      <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>351</v>
+      </c>
+      <c r="B179" t="s">
+        <v>362</v>
+      </c>
+      <c r="C179" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>351</v>
+      </c>
+      <c r="B180" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181" t="s">
+        <v>366</v>
+      </c>
+      <c r="C181" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>351</v>
+      </c>
+      <c r="B182" t="s">
+        <v>368</v>
+      </c>
+      <c r="C182" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>351</v>
+      </c>
+      <c r="B183" t="s">
+        <v>370</v>
+      </c>
+      <c r="C183" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>374</v>
+      </c>
+      <c r="B185" t="s">
+        <v>375</v>
+      </c>
+      <c r="C185" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>374</v>
+      </c>
+      <c r="B186" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>381</v>
+      </c>
+      <c r="C188" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+      <c r="B189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" t="s">
+        <v>385</v>
+      </c>
+      <c r="C190" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>374</v>
+      </c>
+      <c r="B191" t="s">
+        <v>387</v>
+      </c>
+      <c r="C191" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>374</v>
+      </c>
+      <c r="B192" t="s">
+        <v>389</v>
+      </c>
+      <c r="C192" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>374</v>
+      </c>
+      <c r="B193" t="s">
+        <v>391</v>
+      </c>
+      <c r="C193" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>374</v>
+      </c>
+      <c r="B194" t="s">
+        <v>393</v>
+      </c>
+      <c r="C194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>374</v>
+      </c>
+      <c r="B195" t="s">
+        <v>395</v>
+      </c>
+      <c r="C195" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>374</v>
+      </c>
+      <c r="B196" t="s">
+        <v>397</v>
+      </c>
+      <c r="C196" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>374</v>
+      </c>
+      <c r="B197" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>374</v>
+      </c>
+      <c r="B199" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>374</v>
+      </c>
+      <c r="B200" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>407</v>
+      </c>
+      <c r="B201" t="s">
+        <v>408</v>
+      </c>
+      <c r="C201" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>407</v>
+      </c>
+      <c r="B202" t="s">
+        <v>410</v>
+      </c>
+      <c r="C202" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>407</v>
+      </c>
+      <c r="B203" t="s">
+        <v>412</v>
+      </c>
+      <c r="C203" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" t="s">
+        <v>414</v>
+      </c>
+      <c r="C204" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>407</v>
+      </c>
+      <c r="B205" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" t="s">
+        <v>418</v>
+      </c>
+      <c r="C206" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" t="s">
+        <v>422</v>
+      </c>
+      <c r="C208" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>421</v>
+      </c>
+      <c r="B209" t="s">
+        <v>423</v>
+      </c>
+      <c r="C209" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>421</v>
+      </c>
+      <c r="B210" t="s">
+        <v>426</v>
+      </c>
+      <c r="C210" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" t="s">
+        <v>429</v>
+      </c>
+      <c r="C211" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>428</v>
+      </c>
+      <c r="B212" t="s">
+        <v>431</v>
+      </c>
+      <c r="C212" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" t="s">
+        <v>433</v>
+      </c>
+      <c r="C213" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" t="s">
+        <v>435</v>
+      </c>
+      <c r="C214" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>437</v>
+      </c>
+      <c r="C215" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>428</v>
+      </c>
+      <c r="B216" t="s">
+        <v>439</v>
+      </c>
+      <c r="C216" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>441</v>
+      </c>
+      <c r="B217" t="s">
+        <v>442</v>
+      </c>
+      <c r="C217" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>441</v>
+      </c>
+      <c r="B218" t="s">
+        <v>444</v>
+      </c>
+      <c r="C218" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>441</v>
+      </c>
+      <c r="B219" t="s">
+        <v>446</v>
+      </c>
+      <c r="C219" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220" t="s">
+        <v>448</v>
+      </c>
+      <c r="C220" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>441</v>
+      </c>
+      <c r="B221" t="s">
+        <v>450</v>
+      </c>
+      <c r="C221" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>441</v>
+      </c>
+      <c r="B222" t="s">
+        <v>452</v>
+      </c>
+      <c r="C222" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>441</v>
+      </c>
+      <c r="B223" t="s">
+        <v>454</v>
+      </c>
+      <c r="C223" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>441</v>
+      </c>
+      <c r="B224" t="s">
+        <v>456</v>
+      </c>
+      <c r="C224" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>441</v>
+      </c>
+      <c r="B225" t="s">
+        <v>458</v>
+      </c>
+      <c r="C225" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>460</v>
+      </c>
+      <c r="B226" t="s">
+        <v>463</v>
+      </c>
+      <c r="C226" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>460</v>
+      </c>
+      <c r="B227" t="s">
+        <v>464</v>
+      </c>
+      <c r="C227" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>460</v>
+      </c>
+      <c r="B228" t="s">
+        <v>466</v>
+      </c>
+      <c r="C228" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>460</v>
+      </c>
+      <c r="B229" t="s">
+        <v>468</v>
+      </c>
+      <c r="C229" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" t="s">
+        <v>470</v>
+      </c>
+      <c r="C230" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>472</v>
+      </c>
+      <c r="C231" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>474</v>
+      </c>
+      <c r="B232" t="s">
+        <v>475</v>
+      </c>
+      <c r="C232" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>477</v>
+      </c>
+      <c r="B233" t="s">
+        <v>477</v>
+      </c>
+      <c r="C233" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>487</v>
+      </c>
+      <c r="B234" t="s">
+        <v>479</v>
+      </c>
+      <c r="C234" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>481</v>
+      </c>
+      <c r="B235" t="s">
+        <v>482</v>
+      </c>
+      <c r="C235" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>483</v>
+      </c>
+      <c r="B236" t="s">
+        <v>484</v>
+      </c>
+      <c r="C236" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
